--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.23753841506857</v>
+        <v>2.537013666666667</v>
       </c>
       <c r="H2">
-        <v>2.23753841506857</v>
+        <v>7.611041</v>
       </c>
       <c r="I2">
-        <v>0.2652059429772911</v>
+        <v>0.2842954840254888</v>
       </c>
       <c r="J2">
-        <v>0.2652059429772911</v>
+        <v>0.2842954840254888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.33437221684015</v>
+        <v>0.4759383333333333</v>
       </c>
       <c r="N2">
-        <v>2.33437221684015</v>
+        <v>1.427815</v>
       </c>
       <c r="O2">
-        <v>0.7484753887245247</v>
+        <v>0.1284588056245616</v>
       </c>
       <c r="P2">
-        <v>0.7484753887245247</v>
+        <v>0.1284588056245616</v>
       </c>
       <c r="Q2">
-        <v>5.223247510248613</v>
+        <v>1.207462056157222</v>
       </c>
       <c r="R2">
-        <v>5.223247510248613</v>
+        <v>10.867158505415</v>
       </c>
       <c r="S2">
-        <v>0.1985001212619821</v>
+        <v>0.03652025832237094</v>
       </c>
       <c r="T2">
-        <v>0.1985001212619821</v>
+        <v>0.03652025832237092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.23753841506857</v>
+        <v>2.537013666666667</v>
       </c>
       <c r="H3">
-        <v>2.23753841506857</v>
+        <v>7.611041</v>
       </c>
       <c r="I3">
-        <v>0.2652059429772911</v>
+        <v>0.2842954840254888</v>
       </c>
       <c r="J3">
-        <v>0.2652059429772911</v>
+        <v>0.2842954840254888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.784464089612289</v>
+        <v>2.371854333333333</v>
       </c>
       <c r="N3">
-        <v>0.784464089612289</v>
+        <v>7.115563</v>
       </c>
       <c r="O3">
-        <v>0.2515246112754753</v>
+        <v>0.6401786816403544</v>
       </c>
       <c r="P3">
-        <v>0.2515246112754753</v>
+        <v>0.6401786816403543</v>
       </c>
       <c r="Q3">
-        <v>1.75526853574929</v>
+        <v>6.017426859009222</v>
       </c>
       <c r="R3">
-        <v>1.75526853574929</v>
+        <v>54.156841731083</v>
       </c>
       <c r="S3">
-        <v>0.06670582171530902</v>
+        <v>0.1819999081597439</v>
       </c>
       <c r="T3">
-        <v>0.06670582171530902</v>
+        <v>0.1819999081597438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.60699532106295</v>
+        <v>2.537013666666667</v>
       </c>
       <c r="H4">
-        <v>2.60699532106295</v>
+        <v>7.611041</v>
       </c>
       <c r="I4">
-        <v>0.3089961038450808</v>
+        <v>0.2842954840254888</v>
       </c>
       <c r="J4">
-        <v>0.3089961038450808</v>
+        <v>0.2842954840254888</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.33437221684015</v>
+        <v>0.055189</v>
       </c>
       <c r="N4">
-        <v>2.33437221684015</v>
+        <v>0.165567</v>
       </c>
       <c r="O4">
-        <v>0.7484753887245247</v>
+        <v>0.01489586470995318</v>
       </c>
       <c r="P4">
-        <v>0.7484753887245247</v>
+        <v>0.01489586470995318</v>
       </c>
       <c r="Q4">
-        <v>6.085697446921617</v>
+        <v>0.1400152472496667</v>
       </c>
       <c r="R4">
-        <v>6.085697446921617</v>
+        <v>1.260137225247</v>
       </c>
       <c r="S4">
-        <v>0.2312759789398104</v>
+        <v>0.004234827067694335</v>
       </c>
       <c r="T4">
-        <v>0.2312759789398104</v>
+        <v>0.004234827067694335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.60699532106295</v>
+        <v>2.537013666666667</v>
       </c>
       <c r="H5">
-        <v>2.60699532106295</v>
+        <v>7.611041</v>
       </c>
       <c r="I5">
-        <v>0.3089961038450808</v>
+        <v>0.2842954840254888</v>
       </c>
       <c r="J5">
-        <v>0.3089961038450808</v>
+        <v>0.2842954840254888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.784464089612289</v>
+        <v>0.8020063333333334</v>
       </c>
       <c r="N5">
-        <v>0.784464089612289</v>
+        <v>2.406019</v>
       </c>
       <c r="O5">
-        <v>0.2515246112754753</v>
+        <v>0.2164666480251308</v>
       </c>
       <c r="P5">
-        <v>0.2515246112754753</v>
+        <v>0.2164666480251308</v>
       </c>
       <c r="Q5">
-        <v>2.045094211161144</v>
+        <v>2.034701028419889</v>
       </c>
       <c r="R5">
-        <v>2.045094211161144</v>
+        <v>18.312309255779</v>
       </c>
       <c r="S5">
-        <v>0.07772012490527036</v>
+        <v>0.06154049047567969</v>
       </c>
       <c r="T5">
-        <v>0.07772012490527036</v>
+        <v>0.06154049047567967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.54694917799458</v>
+        <v>2.670935</v>
       </c>
       <c r="H6">
-        <v>1.54694917799458</v>
+        <v>8.012805</v>
       </c>
       <c r="I6">
-        <v>0.1833533282490819</v>
+        <v>0.2993025889463553</v>
       </c>
       <c r="J6">
-        <v>0.1833533282490819</v>
+        <v>0.2993025889463553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.33437221684015</v>
+        <v>0.4759383333333333</v>
       </c>
       <c r="N6">
-        <v>2.33437221684015</v>
+        <v>1.427815</v>
       </c>
       <c r="O6">
-        <v>0.7484753887245247</v>
+        <v>0.1284588056245616</v>
       </c>
       <c r="P6">
-        <v>0.7484753887245247</v>
+        <v>0.1284588056245616</v>
       </c>
       <c r="Q6">
-        <v>3.611155181974256</v>
+        <v>1.271200352341667</v>
       </c>
       <c r="R6">
-        <v>3.611155181974256</v>
+        <v>11.440803171075</v>
       </c>
       <c r="S6">
-        <v>0.1372354536351669</v>
+        <v>0.03844805309638793</v>
       </c>
       <c r="T6">
-        <v>0.1372354536351669</v>
+        <v>0.03844805309638791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.54694917799458</v>
+        <v>2.670935</v>
       </c>
       <c r="H7">
-        <v>1.54694917799458</v>
+        <v>8.012805</v>
       </c>
       <c r="I7">
-        <v>0.1833533282490819</v>
+        <v>0.2993025889463553</v>
       </c>
       <c r="J7">
-        <v>0.1833533282490819</v>
+        <v>0.2993025889463553</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.784464089612289</v>
+        <v>2.371854333333333</v>
       </c>
       <c r="N7">
-        <v>0.784464089612289</v>
+        <v>7.115563</v>
       </c>
       <c r="O7">
-        <v>0.2515246112754753</v>
+        <v>0.6401786816403544</v>
       </c>
       <c r="P7">
-        <v>0.2515246112754753</v>
+        <v>0.6401786816403543</v>
       </c>
       <c r="Q7">
-        <v>1.213526078591997</v>
+        <v>6.335068753801667</v>
       </c>
       <c r="R7">
-        <v>1.213526078591997</v>
+        <v>57.015618784215</v>
       </c>
       <c r="S7">
-        <v>0.04611787461391495</v>
+        <v>0.1916071368032227</v>
       </c>
       <c r="T7">
-        <v>0.04611787461391495</v>
+        <v>0.1916071368032226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04550152879102</v>
+        <v>2.670935</v>
       </c>
       <c r="H8">
-        <v>2.04550152879102</v>
+        <v>8.012805</v>
       </c>
       <c r="I8">
-        <v>0.2424446249285461</v>
+        <v>0.2993025889463553</v>
       </c>
       <c r="J8">
-        <v>0.2424446249285461</v>
+        <v>0.2993025889463553</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.33437221684015</v>
+        <v>0.055189</v>
       </c>
       <c r="N8">
-        <v>2.33437221684015</v>
+        <v>0.165567</v>
       </c>
       <c r="O8">
-        <v>0.7484753887245247</v>
+        <v>0.01489586470995318</v>
       </c>
       <c r="P8">
-        <v>0.7484753887245247</v>
+        <v>0.01489586470995318</v>
       </c>
       <c r="Q8">
-        <v>4.774961938313809</v>
+        <v>0.147406231715</v>
       </c>
       <c r="R8">
-        <v>4.774961938313809</v>
+        <v>1.326656085435</v>
       </c>
       <c r="S8">
-        <v>0.1814638348875652</v>
+        <v>0.004458370872283636</v>
       </c>
       <c r="T8">
-        <v>0.1814638348875652</v>
+        <v>0.004458370872283635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04550152879102</v>
+        <v>2.670935</v>
       </c>
       <c r="H9">
-        <v>2.04550152879102</v>
+        <v>8.012805</v>
       </c>
       <c r="I9">
-        <v>0.2424446249285461</v>
+        <v>0.2993025889463553</v>
       </c>
       <c r="J9">
-        <v>0.2424446249285461</v>
+        <v>0.2993025889463553</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.784464089612289</v>
+        <v>0.8020063333333334</v>
       </c>
       <c r="N9">
-        <v>0.784464089612289</v>
+        <v>2.406019</v>
       </c>
       <c r="O9">
-        <v>0.2515246112754753</v>
+        <v>0.2164666480251308</v>
       </c>
       <c r="P9">
-        <v>0.2515246112754753</v>
+        <v>0.2164666480251308</v>
       </c>
       <c r="Q9">
-        <v>1.604622494583593</v>
+        <v>2.142106785921667</v>
       </c>
       <c r="R9">
-        <v>1.604622494583593</v>
+        <v>19.278961073295</v>
       </c>
       <c r="S9">
-        <v>0.06098079004098098</v>
+        <v>0.06478902817446111</v>
       </c>
       <c r="T9">
-        <v>0.06098079004098098</v>
+        <v>0.06478902817446108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.585151666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.755455</v>
+      </c>
+      <c r="I10">
+        <v>0.1776306790341073</v>
+      </c>
+      <c r="J10">
+        <v>0.1776306790341073</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4759383333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.427815</v>
+      </c>
+      <c r="O10">
+        <v>0.1284588056245616</v>
+      </c>
+      <c r="P10">
+        <v>0.1284588056245616</v>
+      </c>
+      <c r="Q10">
+        <v>0.7544344423138889</v>
+      </c>
+      <c r="R10">
+        <v>6.789909980825</v>
+      </c>
+      <c r="S10">
+        <v>0.02281822487100128</v>
+      </c>
+      <c r="T10">
+        <v>0.02281822487100128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.585151666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.755455</v>
+      </c>
+      <c r="I11">
+        <v>0.1776306790341073</v>
+      </c>
+      <c r="J11">
+        <v>0.1776306790341073</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.371854333333333</v>
+      </c>
+      <c r="N11">
+        <v>7.115563</v>
+      </c>
+      <c r="O11">
+        <v>0.6401786816403544</v>
+      </c>
+      <c r="P11">
+        <v>0.6401786816403543</v>
+      </c>
+      <c r="Q11">
+        <v>3.759748849573889</v>
+      </c>
+      <c r="R11">
+        <v>33.83773964616501</v>
+      </c>
+      <c r="S11">
+        <v>0.1137153739229358</v>
+      </c>
+      <c r="T11">
+        <v>0.1137153739229357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.585151666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.755455</v>
+      </c>
+      <c r="I12">
+        <v>0.1776306790341073</v>
+      </c>
+      <c r="J12">
+        <v>0.1776306790341073</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.055189</v>
+      </c>
+      <c r="N12">
+        <v>0.165567</v>
+      </c>
+      <c r="O12">
+        <v>0.01489586470995318</v>
+      </c>
+      <c r="P12">
+        <v>0.01489586470995318</v>
+      </c>
+      <c r="Q12">
+        <v>0.08748293533166666</v>
+      </c>
+      <c r="R12">
+        <v>0.787346417985</v>
+      </c>
+      <c r="S12">
+        <v>0.002645962563229178</v>
+      </c>
+      <c r="T12">
+        <v>0.002645962563229178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.585151666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.755455</v>
+      </c>
+      <c r="I13">
+        <v>0.1776306790341073</v>
+      </c>
+      <c r="J13">
+        <v>0.1776306790341073</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8020063333333334</v>
+      </c>
+      <c r="N13">
+        <v>2.406019</v>
+      </c>
+      <c r="O13">
+        <v>0.2164666480251308</v>
+      </c>
+      <c r="P13">
+        <v>0.2164666480251308</v>
+      </c>
+      <c r="Q13">
+        <v>1.271301675960556</v>
+      </c>
+      <c r="R13">
+        <v>11.441715083645</v>
+      </c>
+      <c r="S13">
+        <v>0.03845111767694109</v>
+      </c>
+      <c r="T13">
+        <v>0.03845111767694108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.130761666666667</v>
+      </c>
+      <c r="H14">
+        <v>6.392285</v>
+      </c>
+      <c r="I14">
+        <v>0.2387712479940486</v>
+      </c>
+      <c r="J14">
+        <v>0.2387712479940486</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4759383333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.427815</v>
+      </c>
+      <c r="O14">
+        <v>0.1284588056245616</v>
+      </c>
+      <c r="P14">
+        <v>0.1284588056245616</v>
+      </c>
+      <c r="Q14">
+        <v>1.014111156363889</v>
+      </c>
+      <c r="R14">
+        <v>9.127000407274998</v>
+      </c>
+      <c r="S14">
+        <v>0.0306722693348015</v>
+      </c>
+      <c r="T14">
+        <v>0.03067226933480148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.130761666666667</v>
+      </c>
+      <c r="H15">
+        <v>6.392285</v>
+      </c>
+      <c r="I15">
+        <v>0.2387712479940486</v>
+      </c>
+      <c r="J15">
+        <v>0.2387712479940486</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.371854333333333</v>
+      </c>
+      <c r="N15">
+        <v>7.115563</v>
+      </c>
+      <c r="O15">
+        <v>0.6401786816403544</v>
+      </c>
+      <c r="P15">
+        <v>0.6401786816403543</v>
+      </c>
+      <c r="Q15">
+        <v>5.053856292383889</v>
+      </c>
+      <c r="R15">
+        <v>45.484706631455</v>
+      </c>
+      <c r="S15">
+        <v>0.1528562627544522</v>
+      </c>
+      <c r="T15">
+        <v>0.1528562627544521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.130761666666667</v>
+      </c>
+      <c r="H16">
+        <v>6.392285</v>
+      </c>
+      <c r="I16">
+        <v>0.2387712479940486</v>
+      </c>
+      <c r="J16">
+        <v>0.2387712479940486</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.055189</v>
+      </c>
+      <c r="N16">
+        <v>0.165567</v>
+      </c>
+      <c r="O16">
+        <v>0.01489586470995318</v>
+      </c>
+      <c r="P16">
+        <v>0.01489586470995318</v>
+      </c>
+      <c r="Q16">
+        <v>0.1175946056216667</v>
+      </c>
+      <c r="R16">
+        <v>1.058351450595</v>
+      </c>
+      <c r="S16">
+        <v>0.003556704206746027</v>
+      </c>
+      <c r="T16">
+        <v>0.003556704206746026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.130761666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.392285</v>
+      </c>
+      <c r="I17">
+        <v>0.2387712479940486</v>
+      </c>
+      <c r="J17">
+        <v>0.2387712479940486</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8020063333333334</v>
+      </c>
+      <c r="N17">
+        <v>2.406019</v>
+      </c>
+      <c r="O17">
+        <v>0.2164666480251308</v>
+      </c>
+      <c r="P17">
+        <v>0.2164666480251308</v>
+      </c>
+      <c r="Q17">
+        <v>1.708884351490556</v>
+      </c>
+      <c r="R17">
+        <v>15.379959163415</v>
+      </c>
+      <c r="S17">
+        <v>0.05168601169804895</v>
+      </c>
+      <c r="T17">
+        <v>0.05168601169804894</v>
       </c>
     </row>
   </sheetData>
